--- a/medicine/Sexualité et sexologie/Romi_(écrivain)/Romi_(écrivain).xlsx
+++ b/medicine/Sexualité et sexologie/Romi_(écrivain)/Romi_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Romi_(%C3%A9crivain)</t>
+          <t>Romi_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Miquel, dit Romi, né le 14 novembre 1905 à Lille (Nord) et mort le 25 novembre 1995 (à 90 ans) à Yerres[1] (Essonne), est un journaliste et « historien de l'insolite » français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Miquel, dit Romi, né le 14 novembre 1905 à Lille (Nord) et mort le 25 novembre 1995 (à 90 ans) à Yerres (Essonne), est un journaliste et « historien de l'insolite » français. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Romi_(%C3%A9crivain)</t>
+          <t>Romi_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homme de radio, collectionneur, antiquaire et, particulièrement, historien de l'insolite, des mœurs privées, des arts mineurs et de l'érotisme, Romi a été journaliste à Paris Match et au Crapouillot. Imprimeur, il s'était spécialisé dans le faire-part mortuaire. En juin 1949, il lance avec l'écrivain Raymond Fauchet un cabaret parisien dans un style Belle Époque, le Saint-Yves, au 4 rue de l'Université[2].
-Robert Doisneau réalisa sa série de photographies La Vitrine de Romi en 1948 dans sa boutique située no 15 rue de Seine à Paris[3]. Dans cette petite échoppe, se croisaient les frères Prévert, Robert Giraud, Jean Breton, les artistes Mathieu et César. Là encore, Romi et Roger Cornaille furent tous deux à l'origine de la revue Bizarre, publiée chez Éric Losfeld[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homme de radio, collectionneur, antiquaire et, particulièrement, historien de l'insolite, des mœurs privées, des arts mineurs et de l'érotisme, Romi a été journaliste à Paris Match et au Crapouillot. Imprimeur, il s'était spécialisé dans le faire-part mortuaire. En juin 1949, il lance avec l'écrivain Raymond Fauchet un cabaret parisien dans un style Belle Époque, le Saint-Yves, au 4 rue de l'Université.
+Robert Doisneau réalisa sa série de photographies La Vitrine de Romi en 1948 dans sa boutique située no 15 rue de Seine à Paris. Dans cette petite échoppe, se croisaient les frères Prévert, Robert Giraud, Jean Breton, les artistes Mathieu et César. Là encore, Romi et Roger Cornaille furent tous deux à l'origine de la revue Bizarre, publiée chez Éric Losfeld.
 Après sa mort, ses collections d'art libertin ont longtemps été exposées au Musée de l'érotisme à Paris (fondé en 1997), avant d'être dispersées aux enchères lors de sa fermeture.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Romi_(%C3%A9crivain)</t>
+          <t>Romi_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Petite Histoire des cafés concerts parisiens, préface de Robert Beauvais, Jean Chitry et Cie, Paris, 1950
 Maisons closes. L'histoire, l'art, la littérature, les mœurs, Aux dépens de l'auteur, 1952 (réédition Cercle du livre précieux, 1958)
